--- a/semantic_segmentation_Fashon/Experiments_SemanticSegmentation.xlsx
+++ b/semantic_segmentation_Fashon/Experiments_SemanticSegmentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YShimada-MBP16/Documents/Code_Github/DL_for_ImageData_and_Finetuning/semantic_segmentation_Fashon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D2E819-D838-844E-8806-D650DBD3DFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4ABF9F5-A27E-EC47-A684-CF86747BCBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35860" yWindow="5240" windowWidth="27500" windowHeight="16360" xr2:uid="{782663B7-CA27-4B46-AFC2-694DABE68FBD}"/>
   </bookViews>
@@ -20,12 +20,14 @@
     <sheet name="DeepLabV3+" sheetId="6" r:id="rId5"/>
     <sheet name="PSPNet" sheetId="7" r:id="rId6"/>
     <sheet name="FPN" sheetId="9" r:id="rId7"/>
+    <sheet name="PAN" sheetId="12" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ALL!$A$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">DeepLabV3!$A$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'DeepLabV3+'!$A$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">FPN!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">PAN!$A$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">PSPNet!$A$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">UNet!$A$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'UNet++'!$A$1:$K$1</definedName>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="86">
   <si>
     <t>tu-regnetz_d8</t>
   </si>
@@ -122,10 +124,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Validation IoU</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>seg_unet_backbone_tu-regnetz_d8_learning_rate_0.0001</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -309,6 +307,44 @@
   </si>
   <si>
     <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>seg_pan_backbone_resnet50_learning_rate_0.0001</t>
+  </si>
+  <si>
+    <t>seg_pan_backbone_efficientnet-b4_learning_rate_0.0001</t>
+  </si>
+  <si>
+    <t>seg_pan_backbone_resnet50_learning_rate_0.0003</t>
+  </si>
+  <si>
+    <t>seg_pan_backbone_efficientnet-b4_learning_rate_0.0003</t>
+  </si>
+  <si>
+    <t>seg_pan_backbone_tu-regnetz_d8_learning_rate_0.0003</t>
+  </si>
+  <si>
+    <t>seg_pan_backbone_tu-regnetz_d8_learning_rate_0.001</t>
+  </si>
+  <si>
+    <t>seg_pan_backbone_efficientnet-b4_learning_rate_0.001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>seg_pan_backbone_resnet50_learning_rate_0.001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>seg_pan_backbone_tu-regnetz_d8_learning_rate_0.0001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PAN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Validation IoU@0.5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -435,7 +471,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -443,9 +479,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -460,9 +493,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -473,12 +503,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -815,11 +839,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCB08E3-EF56-9B4A-ADD2-F5CBCC86BC87}">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -831,7 +855,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="63">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
@@ -858,1906 +882,2221 @@
         <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>23.37</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="F2" s="4">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4">
+        <v>512</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.14419999999999999</v>
+      </c>
+      <c r="K2" s="5">
+        <v>3.8888888888888888E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>23.37</v>
+      </c>
+      <c r="E3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>512</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>0.39279999999999998</v>
+      </c>
+      <c r="K3" s="7">
+        <v>2.8703703703703703E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>23.37</v>
+      </c>
+      <c r="E4">
+        <v>1E-3</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>512</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>0.52059999999999995</v>
+      </c>
+      <c r="K4" s="7">
+        <v>2.685185185185185E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>1E-4</v>
+      </c>
+      <c r="F5">
+        <v>32</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>512</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>0.13650000000000001</v>
+      </c>
+      <c r="K5" s="7">
+        <v>3.5879629629629629E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F6">
+        <v>32</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>512</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>0.3458</v>
+      </c>
+      <c r="K6" s="7">
+        <v>2.7314814814814814E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>1E-3</v>
+      </c>
+      <c r="F7">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>512</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>0.51049999999999995</v>
+      </c>
+      <c r="K7" s="7">
+        <v>2.476851851851852E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>1E-4</v>
+      </c>
+      <c r="F8">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>512</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8">
+        <v>0.19589999999999999</v>
+      </c>
+      <c r="K8" s="7">
+        <v>3.5995370370370369E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>512</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <v>0.31509999999999999</v>
+      </c>
+      <c r="K9" s="7">
+        <v>2.8356481481481483E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9">
+        <v>17</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="F10" s="9">
+        <v>16</v>
+      </c>
+      <c r="G10" s="9">
+        <v>5</v>
+      </c>
+      <c r="H10" s="9">
+        <v>512</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0.5756</v>
+      </c>
+      <c r="K10" s="10">
+        <v>2.8124999999999999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>23.37</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="F11" s="4">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4">
+        <v>512</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.2883</v>
+      </c>
+      <c r="K11" s="5">
+        <v>3.5069444444444445E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>23.37</v>
+      </c>
+      <c r="E12">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>512</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12">
+        <v>0.51419999999999999</v>
+      </c>
+      <c r="K12" s="7">
+        <v>3.2523148148148147E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>23.37</v>
+      </c>
+      <c r="E13">
+        <v>1E-3</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>512</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <v>0.52649999999999997</v>
+      </c>
+      <c r="K13" s="7">
+        <v>3.2407407407407406E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14">
         <v>23</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E14">
+        <v>1E-4</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>512</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14">
+        <v>0.52410000000000001</v>
+      </c>
+      <c r="K14" s="7">
+        <v>4.1666666666666666E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>512</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15">
+        <v>0.55740000000000001</v>
+      </c>
+      <c r="K15" s="7">
+        <v>4.1319444444444442E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1E-3</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>512</v>
+      </c>
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16">
+        <v>0.42280000000000001</v>
+      </c>
+      <c r="K16" s="7">
+        <v>4.1319444444444442E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>1E-4</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>512</v>
+      </c>
+      <c r="I17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17">
+        <v>0.32479999999999998</v>
+      </c>
+      <c r="K17" s="7">
+        <v>3.6805555555555554E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>512</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18">
+        <v>0.50880000000000003</v>
+      </c>
+      <c r="K18" s="7">
+        <v>3.4027777777777776E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9">
+        <v>17</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="F19" s="9">
+        <v>8</v>
+      </c>
+      <c r="G19" s="9">
+        <v>5</v>
+      </c>
+      <c r="H19" s="9">
+        <v>512</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="K19" s="10">
+        <v>3.4375E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D20" s="4">
         <v>23.37</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E20" s="4">
         <v>1E-4</v>
       </c>
-      <c r="F2" s="5">
-        <v>16</v>
-      </c>
-      <c r="G2" s="5">
-        <v>5</v>
-      </c>
-      <c r="H2" s="5">
-        <v>512</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0.14419999999999999</v>
-      </c>
-      <c r="K2" s="6">
+      <c r="F20" s="4">
+        <v>8</v>
+      </c>
+      <c r="G20" s="4">
+        <v>5</v>
+      </c>
+      <c r="H20" s="4">
+        <v>512</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.53720000000000001</v>
+      </c>
+      <c r="K20" s="5">
         <v>3.8888888888888888E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    <row r="21" spans="1:11">
+      <c r="A21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>23.37</v>
+      </c>
+      <c r="E21">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>512</v>
+      </c>
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21">
+        <v>0.64339999999999997</v>
+      </c>
+      <c r="K21" s="7">
+        <v>3.8541666666666668E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>23.37</v>
+      </c>
+      <c r="E22">
+        <v>1E-3</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>512</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="K22" s="7">
+        <v>3.8888888888888888E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23">
         <v>23</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="E23">
+        <v>1E-4</v>
+      </c>
+      <c r="F23">
+        <v>16</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>512</v>
+      </c>
+      <c r="I23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23">
+        <v>0.50249999999999995</v>
+      </c>
+      <c r="K23" s="7">
+        <v>3.4027777777777776E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F24">
+        <v>16</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>512</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24">
+        <v>0.60360000000000003</v>
+      </c>
+      <c r="K24" s="7">
+        <v>3.3217592592592591E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1E-3</v>
+      </c>
+      <c r="F25">
+        <v>16</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>512</v>
+      </c>
+      <c r="I25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25">
+        <v>0.59009999999999996</v>
+      </c>
+      <c r="K25" s="7">
+        <v>3.3101851851851851E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>17</v>
+      </c>
+      <c r="E26">
+        <v>1E-4</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>512</v>
+      </c>
+      <c r="I26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26">
+        <v>0.56910000000000005</v>
+      </c>
+      <c r="K26" s="7">
+        <v>5.6712962962962967E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>17</v>
+      </c>
+      <c r="E27">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>512</v>
+      </c>
+      <c r="I27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27">
+        <v>0.63970000000000005</v>
+      </c>
+      <c r="K27" s="7">
+        <v>5.6365740740740742E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="9">
+        <v>17</v>
+      </c>
+      <c r="E28" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="F28" s="9">
+        <v>4</v>
+      </c>
+      <c r="G28" s="9">
+        <v>5</v>
+      </c>
+      <c r="H28" s="9">
+        <v>512</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="9">
+        <v>0.63290000000000002</v>
+      </c>
+      <c r="K28" s="10">
+        <v>5.7060185185185183E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D29">
         <v>23.37</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E29">
+        <v>1E-4</v>
+      </c>
+      <c r="F29">
+        <v>16</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>512</v>
+      </c>
+      <c r="I29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29">
+        <v>0.45</v>
+      </c>
+      <c r="K29" s="7">
+        <v>2.7083333333333334E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>23.37</v>
+      </c>
+      <c r="E30">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="F3" s="8">
-        <v>16</v>
-      </c>
-      <c r="G3" s="8">
-        <v>5</v>
-      </c>
-      <c r="H3" s="8">
-        <v>512</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="8">
-        <v>0.39279999999999998</v>
-      </c>
-      <c r="K3" s="9">
-        <v>2.8703703703703703E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="F30">
+        <v>16</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>512</v>
+      </c>
+      <c r="I30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30">
+        <v>0.59740000000000004</v>
+      </c>
+      <c r="K30" s="7">
+        <v>2.638888888888889E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>23.37</v>
+      </c>
+      <c r="E31">
+        <v>1E-3</v>
+      </c>
+      <c r="F31">
+        <v>16</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>512</v>
+      </c>
+      <c r="I31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31">
+        <v>0.63970000000000005</v>
+      </c>
+      <c r="K31" s="7">
+        <v>2.627314814814815E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32">
         <v>23</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="E32">
+        <v>1E-4</v>
+      </c>
+      <c r="F32">
+        <v>32</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>512</v>
+      </c>
+      <c r="I32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32">
+        <v>0.4385</v>
+      </c>
+      <c r="K32" s="7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>23</v>
+      </c>
+      <c r="E33">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F33">
+        <v>32</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>512</v>
+      </c>
+      <c r="I33" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33">
+        <v>0.53690000000000004</v>
+      </c>
+      <c r="K33" s="7">
+        <v>2.488425925925926E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>23</v>
+      </c>
+      <c r="E34">
+        <v>1E-3</v>
+      </c>
+      <c r="F34">
+        <v>32</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <v>512</v>
+      </c>
+      <c r="I34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34">
+        <v>0.5887</v>
+      </c>
+      <c r="K34" s="7">
+        <v>2.4074074074074076E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>17</v>
+      </c>
+      <c r="E35">
+        <v>1E-4</v>
+      </c>
+      <c r="F35">
+        <v>16</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35">
+        <v>512</v>
+      </c>
+      <c r="I35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35">
+        <v>0.44429999999999997</v>
+      </c>
+      <c r="K35" s="7">
+        <v>3.0555555555555557E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>17</v>
+      </c>
+      <c r="E36">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F36">
+        <v>8</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="H36">
+        <v>512</v>
+      </c>
+      <c r="I36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="K36" s="7">
+        <v>3.1481481481481482E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>17</v>
+      </c>
+      <c r="E37">
+        <v>1E-3</v>
+      </c>
+      <c r="F37">
+        <v>16</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>512</v>
+      </c>
+      <c r="I37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37">
+        <v>0.62</v>
+      </c>
+      <c r="K37" s="7">
+        <v>2.9861111111111113E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D38" s="4">
         <v>23.37</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E38" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="F38" s="4">
+        <v>16</v>
+      </c>
+      <c r="G38" s="4">
+        <v>5</v>
+      </c>
+      <c r="H38" s="4">
+        <v>512</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0.22550000000000001</v>
+      </c>
+      <c r="K38" s="5">
+        <v>2.3148148148148147E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>23.37</v>
+      </c>
+      <c r="E39">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F39">
+        <v>16</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39">
+        <v>512</v>
+      </c>
+      <c r="I39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39">
+        <v>0.34139999999999998</v>
+      </c>
+      <c r="K39" s="7">
+        <v>2.2800925925925927E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>23.37</v>
+      </c>
+      <c r="E40">
         <v>1E-3</v>
       </c>
-      <c r="F4" s="8">
-        <v>16</v>
-      </c>
-      <c r="G4" s="8">
-        <v>5</v>
-      </c>
-      <c r="H4" s="8">
-        <v>512</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0.52059999999999995</v>
-      </c>
-      <c r="K4" s="9">
-        <v>2.685185185185185E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="F40">
+        <v>16</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40">
+        <v>512</v>
+      </c>
+      <c r="I40" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40">
+        <v>0.45910000000000001</v>
+      </c>
+      <c r="K40" s="7">
+        <v>2.2685185185185187E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41">
         <v>23</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="E41">
+        <v>1E-4</v>
+      </c>
+      <c r="F41">
+        <v>32</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+      <c r="H41">
+        <v>512</v>
+      </c>
+      <c r="I41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41">
+        <v>0.3644</v>
+      </c>
+      <c r="K41" s="7">
+        <v>2.3379629629629631E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D42">
         <v>23</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E42">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F42">
+        <v>32</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>512</v>
+      </c>
+      <c r="I42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42">
+        <v>0.43180000000000002</v>
+      </c>
+      <c r="K42" s="7">
+        <v>2.2916666666666667E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>23</v>
+      </c>
+      <c r="E43">
+        <v>1E-3</v>
+      </c>
+      <c r="F43">
+        <v>32</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+      <c r="H43">
+        <v>512</v>
+      </c>
+      <c r="I43" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43">
+        <v>0.44219999999999998</v>
+      </c>
+      <c r="K43" s="7">
+        <v>2.3726851851851851E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>17</v>
+      </c>
+      <c r="E44">
         <v>1E-4</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F44">
         <v>32</v>
       </c>
-      <c r="G5" s="8">
-        <v>5</v>
-      </c>
-      <c r="H5" s="8">
-        <v>512</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0.13650000000000001</v>
-      </c>
-      <c r="K5" s="9">
-        <v>3.5879629629629629E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="G44">
+        <v>5</v>
+      </c>
+      <c r="H44">
+        <v>512</v>
+      </c>
+      <c r="I44" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44">
+        <v>0.2122</v>
+      </c>
+      <c r="K44" s="7">
+        <v>2.3263888888888887E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>17</v>
+      </c>
+      <c r="E45">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F45">
+        <v>32</v>
+      </c>
+      <c r="G45">
+        <v>5</v>
+      </c>
+      <c r="H45">
+        <v>512</v>
+      </c>
+      <c r="I45" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45">
+        <v>0.23219999999999999</v>
+      </c>
+      <c r="K45" s="7">
+        <v>2.3495370370370371E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="9">
+        <v>17</v>
+      </c>
+      <c r="E46" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="F46" s="9">
+        <v>32</v>
+      </c>
+      <c r="G46" s="9">
+        <v>5</v>
+      </c>
+      <c r="H46" s="9">
+        <v>512</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="9">
+        <v>0.25540000000000002</v>
+      </c>
+      <c r="K46" s="10">
+        <v>2.3495370370370371E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47">
+        <v>23.37</v>
+      </c>
+      <c r="E47">
+        <v>1E-4</v>
+      </c>
+      <c r="F47">
+        <v>16</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+      <c r="H47">
+        <v>512</v>
+      </c>
+      <c r="I47" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47">
+        <v>0.5675</v>
+      </c>
+      <c r="K47" s="7">
+        <v>2.5578703703703705E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48">
+        <v>23.37</v>
+      </c>
+      <c r="E48">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F48">
+        <v>16</v>
+      </c>
+      <c r="G48">
+        <v>5</v>
+      </c>
+      <c r="H48">
+        <v>512</v>
+      </c>
+      <c r="I48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48">
+        <v>0.62470000000000003</v>
+      </c>
+      <c r="K48" s="7">
+        <v>2.5694444444444445E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49">
+        <v>23.37</v>
+      </c>
+      <c r="E49">
+        <v>1E-3</v>
+      </c>
+      <c r="F49">
+        <v>16</v>
+      </c>
+      <c r="G49">
+        <v>5</v>
+      </c>
+      <c r="H49">
+        <v>512</v>
+      </c>
+      <c r="I49" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49">
+        <v>0.6169</v>
+      </c>
+      <c r="K49" s="7">
+        <v>2.5578703703703705E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50">
         <v>23</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="E50">
+        <v>1E-4</v>
+      </c>
+      <c r="F50">
+        <v>32</v>
+      </c>
+      <c r="G50">
+        <v>5</v>
+      </c>
+      <c r="H50">
+        <v>512</v>
+      </c>
+      <c r="I50" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50">
+        <v>0.56889999999999996</v>
+      </c>
+      <c r="K50" s="7">
+        <v>2.3958333333333331E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D51">
         <v>23</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E51">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F51">
         <v>32</v>
       </c>
-      <c r="G6" s="8">
-        <v>5</v>
-      </c>
-      <c r="H6" s="8">
-        <v>512</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0.3458</v>
-      </c>
-      <c r="K6" s="9">
+      <c r="G51">
+        <v>5</v>
+      </c>
+      <c r="H51">
+        <v>512</v>
+      </c>
+      <c r="I51" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51">
+        <v>0.58179999999999998</v>
+      </c>
+      <c r="K51" s="7">
+        <v>2.3958333333333331E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>23</v>
+      </c>
+      <c r="E52">
+        <v>1E-3</v>
+      </c>
+      <c r="F52">
+        <v>32</v>
+      </c>
+      <c r="G52">
+        <v>5</v>
+      </c>
+      <c r="H52">
+        <v>512</v>
+      </c>
+      <c r="I52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52">
+        <v>0.54679999999999995</v>
+      </c>
+      <c r="K52" s="7">
+        <v>2.4421296296296296E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>17</v>
+      </c>
+      <c r="E53">
+        <v>1E-4</v>
+      </c>
+      <c r="F53">
+        <v>16</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
+      </c>
+      <c r="H53">
+        <v>512</v>
+      </c>
+      <c r="I53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53">
+        <v>0.56989999999999996</v>
+      </c>
+      <c r="K53" s="7">
+        <v>2.7199074074074074E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>17</v>
+      </c>
+      <c r="E54">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F54">
+        <v>16</v>
+      </c>
+      <c r="G54">
+        <v>5</v>
+      </c>
+      <c r="H54">
+        <v>512</v>
+      </c>
+      <c r="I54" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54">
+        <v>0.60970000000000002</v>
+      </c>
+      <c r="K54" s="7">
+        <v>2.7083333333333334E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="9">
+        <v>17</v>
+      </c>
+      <c r="E55" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="F55" s="9">
+        <v>16</v>
+      </c>
+      <c r="G55" s="9">
+        <v>5</v>
+      </c>
+      <c r="H55" s="9">
+        <v>512</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="9">
+        <v>0.63060000000000005</v>
+      </c>
+      <c r="K55" s="10">
+        <v>2.7083333333333334E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="4">
+        <v>23.37</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="F56" s="4">
+        <v>16</v>
+      </c>
+      <c r="G56" s="4">
+        <v>5</v>
+      </c>
+      <c r="H56" s="4">
+        <v>512</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="4">
+        <v>0.22109999999999999</v>
+      </c>
+      <c r="K56" s="5">
+        <v>3.5995370370370369E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57">
+        <v>23.37</v>
+      </c>
+      <c r="E57">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F57">
+        <v>16</v>
+      </c>
+      <c r="G57">
+        <v>5</v>
+      </c>
+      <c r="H57">
+        <v>512</v>
+      </c>
+      <c r="I57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57">
+        <v>0.24890000000000001</v>
+      </c>
+      <c r="K57" s="7">
+        <v>3.1944444444444446E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58">
+        <v>23.37</v>
+      </c>
+      <c r="E58">
+        <v>1E-3</v>
+      </c>
+      <c r="F58">
+        <v>16</v>
+      </c>
+      <c r="G58">
+        <v>5</v>
+      </c>
+      <c r="H58">
+        <v>512</v>
+      </c>
+      <c r="I58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58">
+        <v>0.48039999999999999</v>
+      </c>
+      <c r="K58" s="7">
+        <v>2.7199074074074074E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>23</v>
+      </c>
+      <c r="E59">
+        <v>1E-4</v>
+      </c>
+      <c r="F59">
+        <v>32</v>
+      </c>
+      <c r="G59">
+        <v>5</v>
+      </c>
+      <c r="H59">
+        <v>512</v>
+      </c>
+      <c r="I59" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59">
+        <v>0.1991</v>
+      </c>
+      <c r="K59" s="7">
+        <v>3.4375E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>23</v>
+      </c>
+      <c r="E60">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F60">
+        <v>32</v>
+      </c>
+      <c r="G60">
+        <v>5</v>
+      </c>
+      <c r="H60">
+        <v>512</v>
+      </c>
+      <c r="I60" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60">
+        <v>0.32950000000000002</v>
+      </c>
+      <c r="K60" s="7">
         <v>2.7314814814814814E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="8" t="s">
+    <row r="61" spans="1:11">
+      <c r="A61" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61">
         <v>23</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="8">
-        <v>23</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="E61">
         <v>1E-3</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F61">
         <v>32</v>
       </c>
-      <c r="G7" s="8">
-        <v>5</v>
-      </c>
-      <c r="H7" s="8">
-        <v>512</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0.51049999999999995</v>
-      </c>
-      <c r="K7" s="9">
-        <v>2.476851851851852E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="7" t="s">
+      <c r="G61">
+        <v>5</v>
+      </c>
+      <c r="H61">
+        <v>512</v>
+      </c>
+      <c r="I61" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61">
+        <v>0.49740000000000001</v>
+      </c>
+      <c r="K61" s="7">
+        <v>2.5115740740740741E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62">
         <v>17</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="E62">
+        <v>1E-4</v>
+      </c>
+      <c r="F62">
+        <v>16</v>
+      </c>
+      <c r="G62">
+        <v>5</v>
+      </c>
+      <c r="H62">
+        <v>512</v>
+      </c>
+      <c r="I62" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62">
+        <v>0.21779999999999999</v>
+      </c>
+      <c r="K62" s="7">
+        <v>3.1250000000000002E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D63">
         <v>17</v>
       </c>
-      <c r="E8" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F8" s="8">
-        <v>16</v>
-      </c>
-      <c r="G8" s="8">
-        <v>5</v>
-      </c>
-      <c r="H8" s="8">
-        <v>512</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0.19589999999999999</v>
-      </c>
-      <c r="K8" s="9">
-        <v>3.5995370370370369E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="E63">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F63">
+        <v>16</v>
+      </c>
+      <c r="G63">
+        <v>5</v>
+      </c>
+      <c r="H63">
+        <v>512</v>
+      </c>
+      <c r="I63" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63">
+        <v>0.40889999999999999</v>
+      </c>
+      <c r="K63" s="7">
+        <v>2.8935185185185184E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D64" s="9">
         <v>17</v>
       </c>
-      <c r="E9" s="8">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F9" s="8">
-        <v>16</v>
-      </c>
-      <c r="G9" s="8">
-        <v>5</v>
-      </c>
-      <c r="H9" s="8">
-        <v>512</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0.31509999999999999</v>
-      </c>
-      <c r="K9" s="9">
-        <v>2.8356481481481483E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11">
-        <v>17</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="E64" s="9">
         <v>1E-3</v>
       </c>
-      <c r="F10" s="11">
-        <v>16</v>
-      </c>
-      <c r="G10" s="11">
-        <v>5</v>
-      </c>
-      <c r="H10" s="11">
-        <v>512</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="11">
-        <v>0.5756</v>
-      </c>
-      <c r="K10" s="12">
-        <v>2.8124999999999999E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>23.37</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1E-4</v>
-      </c>
-      <c r="F11" s="5">
-        <v>8</v>
-      </c>
-      <c r="G11" s="5">
-        <v>5</v>
-      </c>
-      <c r="H11" s="5">
-        <v>512</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0.2883</v>
-      </c>
-      <c r="K11" s="6">
-        <v>3.5069444444444445E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8">
-        <v>23.37</v>
-      </c>
-      <c r="E12" s="8">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F12" s="8">
-        <v>8</v>
-      </c>
-      <c r="G12" s="8">
-        <v>5</v>
-      </c>
-      <c r="H12" s="8">
-        <v>512</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="8">
-        <v>0.51419999999999999</v>
-      </c>
-      <c r="K12" s="9">
-        <v>3.2523148148148147E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="8">
-        <v>23.37</v>
-      </c>
-      <c r="E13" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="F13" s="8">
-        <v>8</v>
-      </c>
-      <c r="G13" s="8">
-        <v>5</v>
-      </c>
-      <c r="H13" s="8">
-        <v>512</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="8">
-        <v>0.52649999999999997</v>
-      </c>
-      <c r="K13" s="9">
-        <v>3.2407407407407406E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="8">
-        <v>23</v>
-      </c>
-      <c r="E14" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F14" s="8">
-        <v>4</v>
-      </c>
-      <c r="G14" s="8">
-        <v>5</v>
-      </c>
-      <c r="H14" s="8">
-        <v>512</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0.52410000000000001</v>
-      </c>
-      <c r="K14" s="9">
-        <v>4.1666666666666666E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="8">
-        <v>23</v>
-      </c>
-      <c r="E15" s="8">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F15" s="8">
-        <v>4</v>
-      </c>
-      <c r="G15" s="8">
-        <v>5</v>
-      </c>
-      <c r="H15" s="8">
-        <v>512</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="8">
-        <v>0.55740000000000001</v>
-      </c>
-      <c r="K15" s="9">
-        <v>4.1319444444444442E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="8">
-        <v>23</v>
-      </c>
-      <c r="E16" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="F16" s="8">
-        <v>4</v>
-      </c>
-      <c r="G16" s="8">
-        <v>5</v>
-      </c>
-      <c r="H16" s="8">
-        <v>512</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="8">
-        <v>0.42280000000000001</v>
-      </c>
-      <c r="K16" s="9">
-        <v>4.1319444444444442E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="8">
-        <v>17</v>
-      </c>
-      <c r="E17" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F17" s="8">
-        <v>8</v>
-      </c>
-      <c r="G17" s="8">
-        <v>5</v>
-      </c>
-      <c r="H17" s="8">
-        <v>512</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="8">
-        <v>0.32479999999999998</v>
-      </c>
-      <c r="K17" s="9">
-        <v>3.6805555555555554E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="8">
-        <v>17</v>
-      </c>
-      <c r="E18" s="8">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F18" s="8">
-        <v>8</v>
-      </c>
-      <c r="G18" s="8">
-        <v>5</v>
-      </c>
-      <c r="H18" s="8">
-        <v>512</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="8">
-        <v>0.50880000000000003</v>
-      </c>
-      <c r="K18" s="9">
-        <v>3.4027777777777776E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="11">
-        <v>17</v>
-      </c>
-      <c r="E19" s="11">
-        <v>1E-3</v>
-      </c>
-      <c r="F19" s="11">
-        <v>8</v>
-      </c>
-      <c r="G19" s="11">
-        <v>5</v>
-      </c>
-      <c r="H19" s="11">
-        <v>512</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="11">
-        <v>0.58120000000000005</v>
-      </c>
-      <c r="K19" s="12">
-        <v>3.4375E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5">
-        <v>23.37</v>
-      </c>
-      <c r="E20" s="5">
-        <v>1E-4</v>
-      </c>
-      <c r="F20" s="5">
-        <v>8</v>
-      </c>
-      <c r="G20" s="5">
-        <v>5</v>
-      </c>
-      <c r="H20" s="5">
-        <v>512</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="5">
-        <v>0.53720000000000001</v>
-      </c>
-      <c r="K20" s="6">
-        <v>3.8888888888888888E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="8">
-        <v>23.37</v>
-      </c>
-      <c r="E21" s="8">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F21" s="8">
-        <v>8</v>
-      </c>
-      <c r="G21" s="8">
-        <v>5</v>
-      </c>
-      <c r="H21" s="8">
-        <v>512</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="8">
-        <v>0.64339999999999997</v>
-      </c>
-      <c r="K21" s="9">
-        <v>3.8541666666666668E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="8">
-        <v>23.37</v>
-      </c>
-      <c r="E22" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="F22" s="8">
-        <v>8</v>
-      </c>
-      <c r="G22" s="8">
-        <v>5</v>
-      </c>
-      <c r="H22" s="8">
-        <v>512</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="8">
-        <v>0.65800000000000003</v>
-      </c>
-      <c r="K22" s="9">
-        <v>3.8888888888888888E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="8">
-        <v>23</v>
-      </c>
-      <c r="E23" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F23" s="8">
-        <v>16</v>
-      </c>
-      <c r="G23" s="8">
-        <v>5</v>
-      </c>
-      <c r="H23" s="8">
-        <v>512</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="8">
-        <v>0.50249999999999995</v>
-      </c>
-      <c r="K23" s="9">
-        <v>3.4027777777777776E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="8">
-        <v>23</v>
-      </c>
-      <c r="E24" s="8">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F24" s="8">
-        <v>16</v>
-      </c>
-      <c r="G24" s="8">
-        <v>5</v>
-      </c>
-      <c r="H24" s="8">
-        <v>512</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="8">
-        <v>0.60360000000000003</v>
-      </c>
-      <c r="K24" s="9">
-        <v>3.3217592592592591E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="8">
-        <v>23</v>
-      </c>
-      <c r="E25" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="F25" s="8">
-        <v>16</v>
-      </c>
-      <c r="G25" s="8">
-        <v>5</v>
-      </c>
-      <c r="H25" s="8">
-        <v>512</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="8">
-        <v>0.59009999999999996</v>
-      </c>
-      <c r="K25" s="9">
-        <v>3.3101851851851851E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="8">
-        <v>17</v>
-      </c>
-      <c r="E26" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F26" s="8">
-        <v>4</v>
-      </c>
-      <c r="G26" s="8">
-        <v>5</v>
-      </c>
-      <c r="H26" s="8">
-        <v>512</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="8">
-        <v>0.56910000000000005</v>
-      </c>
-      <c r="K26" s="9">
-        <v>5.6712962962962967E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="8">
-        <v>17</v>
-      </c>
-      <c r="E27" s="8">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F27" s="8">
-        <v>4</v>
-      </c>
-      <c r="G27" s="8">
-        <v>5</v>
-      </c>
-      <c r="H27" s="8">
-        <v>512</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="8">
-        <v>0.63970000000000005</v>
-      </c>
-      <c r="K27" s="9">
-        <v>5.6365740740740742E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="11">
-        <v>17</v>
-      </c>
-      <c r="E28" s="11">
-        <v>1E-3</v>
-      </c>
-      <c r="F28" s="11">
-        <v>4</v>
-      </c>
-      <c r="G28" s="11">
-        <v>5</v>
-      </c>
-      <c r="H28" s="11">
-        <v>512</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="11">
-        <v>0.63290000000000002</v>
-      </c>
-      <c r="K28" s="12">
-        <v>5.7060185185185183E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="8">
-        <v>23.37</v>
-      </c>
-      <c r="E29" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F29" s="8">
-        <v>16</v>
-      </c>
-      <c r="G29" s="8">
-        <v>5</v>
-      </c>
-      <c r="H29" s="8">
-        <v>512</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" s="8">
-        <v>0.45</v>
-      </c>
-      <c r="K29" s="9">
-        <v>2.7083333333333334E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="8">
-        <v>23.37</v>
-      </c>
-      <c r="E30" s="8">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F30" s="8">
-        <v>16</v>
-      </c>
-      <c r="G30" s="8">
-        <v>5</v>
-      </c>
-      <c r="H30" s="8">
-        <v>512</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" s="8">
-        <v>0.59740000000000004</v>
-      </c>
-      <c r="K30" s="9">
-        <v>2.638888888888889E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="8">
-        <v>23.37</v>
-      </c>
-      <c r="E31" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="F31" s="8">
-        <v>16</v>
-      </c>
-      <c r="G31" s="8">
-        <v>5</v>
-      </c>
-      <c r="H31" s="8">
-        <v>512</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31" s="8">
-        <v>0.63970000000000005</v>
-      </c>
-      <c r="K31" s="9">
-        <v>2.627314814814815E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="8">
-        <v>23</v>
-      </c>
-      <c r="E32" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F32" s="8">
-        <v>32</v>
-      </c>
-      <c r="G32" s="8">
-        <v>5</v>
-      </c>
-      <c r="H32" s="8">
-        <v>512</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J32" s="8">
-        <v>0.4385</v>
-      </c>
-      <c r="K32" s="9">
-        <v>2.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="8">
-        <v>23</v>
-      </c>
-      <c r="E33" s="8">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F33" s="8">
-        <v>32</v>
-      </c>
-      <c r="G33" s="8">
-        <v>5</v>
-      </c>
-      <c r="H33" s="8">
-        <v>512</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J33" s="8">
-        <v>0.53690000000000004</v>
-      </c>
-      <c r="K33" s="9">
-        <v>2.488425925925926E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="8">
-        <v>23</v>
-      </c>
-      <c r="E34" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="F34" s="8">
-        <v>32</v>
-      </c>
-      <c r="G34" s="8">
-        <v>5</v>
-      </c>
-      <c r="H34" s="8">
-        <v>512</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J34" s="8">
-        <v>0.5887</v>
-      </c>
-      <c r="K34" s="9">
-        <v>2.4074074074074076E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="8">
-        <v>17</v>
-      </c>
-      <c r="E35" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F35" s="8">
-        <v>16</v>
-      </c>
-      <c r="G35" s="8">
-        <v>5</v>
-      </c>
-      <c r="H35" s="8">
-        <v>512</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J35" s="8">
-        <v>0.44429999999999997</v>
-      </c>
-      <c r="K35" s="9">
-        <v>3.0555555555555557E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="8">
-        <v>17</v>
-      </c>
-      <c r="E36" s="8">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F36" s="8">
-        <v>8</v>
-      </c>
-      <c r="G36" s="8">
-        <v>5</v>
-      </c>
-      <c r="H36" s="8">
-        <v>512</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" s="8">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="K36" s="9">
-        <v>3.1481481481481482E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="8">
-        <v>17</v>
-      </c>
-      <c r="E37" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="F37" s="8">
-        <v>16</v>
-      </c>
-      <c r="G37" s="8">
-        <v>5</v>
-      </c>
-      <c r="H37" s="8">
-        <v>512</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J37" s="8">
-        <v>0.62</v>
-      </c>
-      <c r="K37" s="9">
-        <v>2.9861111111111113E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="5">
-        <v>23.37</v>
-      </c>
-      <c r="E38" s="5">
-        <v>1E-4</v>
-      </c>
-      <c r="F38" s="5">
-        <v>16</v>
-      </c>
-      <c r="G38" s="5">
-        <v>5</v>
-      </c>
-      <c r="H38" s="5">
-        <v>512</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="5">
-        <v>0.22550000000000001</v>
-      </c>
-      <c r="K38" s="6">
-        <v>2.3148148148148147E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="8">
-        <v>23.37</v>
-      </c>
-      <c r="E39" s="8">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F39" s="8">
-        <v>16</v>
-      </c>
-      <c r="G39" s="8">
-        <v>5</v>
-      </c>
-      <c r="H39" s="8">
-        <v>512</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J39" s="8">
-        <v>0.34139999999999998</v>
-      </c>
-      <c r="K39" s="9">
-        <v>2.2800925925925927E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="8">
-        <v>23.37</v>
-      </c>
-      <c r="E40" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="F40" s="8">
-        <v>16</v>
-      </c>
-      <c r="G40" s="8">
-        <v>5</v>
-      </c>
-      <c r="H40" s="8">
-        <v>512</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J40" s="8">
-        <v>0.45910000000000001</v>
-      </c>
-      <c r="K40" s="9">
-        <v>2.2685185185185187E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="8">
-        <v>23</v>
-      </c>
-      <c r="E41" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F41" s="8">
-        <v>32</v>
-      </c>
-      <c r="G41" s="8">
-        <v>5</v>
-      </c>
-      <c r="H41" s="8">
-        <v>512</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J41" s="8">
-        <v>0.3644</v>
-      </c>
-      <c r="K41" s="9">
-        <v>2.3379629629629631E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="8">
-        <v>23</v>
-      </c>
-      <c r="E42" s="8">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F42" s="8">
-        <v>32</v>
-      </c>
-      <c r="G42" s="8">
-        <v>5</v>
-      </c>
-      <c r="H42" s="8">
-        <v>512</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J42" s="8">
-        <v>0.43180000000000002</v>
-      </c>
-      <c r="K42" s="9">
-        <v>2.2916666666666667E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="8">
-        <v>23</v>
-      </c>
-      <c r="E43" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="F43" s="8">
-        <v>32</v>
-      </c>
-      <c r="G43" s="8">
-        <v>5</v>
-      </c>
-      <c r="H43" s="8">
-        <v>512</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J43" s="8">
-        <v>0.44219999999999998</v>
-      </c>
-      <c r="K43" s="9">
-        <v>2.3726851851851851E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" s="8">
-        <v>17</v>
-      </c>
-      <c r="E44" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F44" s="8">
-        <v>32</v>
-      </c>
-      <c r="G44" s="8">
-        <v>5</v>
-      </c>
-      <c r="H44" s="8">
-        <v>512</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J44" s="8">
-        <v>0.2122</v>
-      </c>
-      <c r="K44" s="9">
-        <v>2.3263888888888887E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="8">
-        <v>17</v>
-      </c>
-      <c r="E45" s="8">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F45" s="8">
-        <v>32</v>
-      </c>
-      <c r="G45" s="8">
-        <v>5</v>
-      </c>
-      <c r="H45" s="8">
-        <v>512</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J45" s="8">
-        <v>0.23219999999999999</v>
-      </c>
-      <c r="K45" s="9">
-        <v>2.3495370370370371E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="11">
-        <v>17</v>
-      </c>
-      <c r="E46" s="11">
-        <v>1E-3</v>
-      </c>
-      <c r="F46" s="11">
-        <v>32</v>
-      </c>
-      <c r="G46" s="11">
-        <v>5</v>
-      </c>
-      <c r="H46" s="11">
-        <v>512</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" s="11">
-        <v>0.25540000000000002</v>
-      </c>
-      <c r="K46" s="12">
-        <v>2.3495370370370371E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D47" s="8">
-        <v>23.37</v>
-      </c>
-      <c r="E47" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F47" s="8">
-        <v>16</v>
-      </c>
-      <c r="G47" s="13">
-        <v>5</v>
-      </c>
-      <c r="H47" s="8">
-        <v>512</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="8">
-        <v>0.5675</v>
-      </c>
-      <c r="K47" s="9">
-        <v>2.5578703703703705E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D48" s="8">
-        <v>23.37</v>
-      </c>
-      <c r="E48" s="8">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F48" s="8">
-        <v>16</v>
-      </c>
-      <c r="G48" s="13">
-        <v>5</v>
-      </c>
-      <c r="H48" s="8">
-        <v>512</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" s="8">
-        <v>0.62470000000000003</v>
-      </c>
-      <c r="K48" s="9">
-        <v>2.5694444444444445E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D49" s="8">
-        <v>23.37</v>
-      </c>
-      <c r="E49" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="F49" s="8">
-        <v>16</v>
-      </c>
-      <c r="G49" s="13">
-        <v>5</v>
-      </c>
-      <c r="H49" s="8">
-        <v>512</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" s="8">
-        <v>0.6169</v>
-      </c>
-      <c r="K49" s="9">
-        <v>2.5578703703703705E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="8">
-        <v>23</v>
-      </c>
-      <c r="E50" s="13">
-        <v>1E-4</v>
-      </c>
-      <c r="F50" s="8">
-        <v>32</v>
-      </c>
-      <c r="G50" s="13">
-        <v>5</v>
-      </c>
-      <c r="H50" s="8">
-        <v>512</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J50" s="8">
-        <v>0.56889999999999996</v>
-      </c>
-      <c r="K50" s="9">
-        <v>2.3958333333333331E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="8">
-        <v>23</v>
-      </c>
-      <c r="E51" s="13">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F51" s="8">
-        <v>32</v>
-      </c>
-      <c r="G51" s="13">
-        <v>5</v>
-      </c>
-      <c r="H51" s="8">
-        <v>512</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" s="8">
-        <v>0.58179999999999998</v>
-      </c>
-      <c r="K51" s="9">
-        <v>2.3958333333333331E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="8">
-        <v>23</v>
-      </c>
-      <c r="E52" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="F52" s="8">
-        <v>32</v>
-      </c>
-      <c r="G52" s="13">
-        <v>5</v>
-      </c>
-      <c r="H52" s="8">
-        <v>512</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" s="8">
-        <v>0.54679999999999995</v>
-      </c>
-      <c r="K52" s="9">
-        <v>2.4421296296296296E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" s="8">
-        <v>17</v>
-      </c>
-      <c r="E53" s="13">
-        <v>1E-4</v>
-      </c>
-      <c r="F53" s="8">
-        <v>16</v>
-      </c>
-      <c r="G53" s="13">
-        <v>5</v>
-      </c>
-      <c r="H53" s="8">
-        <v>512</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J53" s="8">
-        <v>0.56989999999999996</v>
-      </c>
-      <c r="K53" s="9">
-        <v>2.7199074074074074E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D54" s="8">
-        <v>17</v>
-      </c>
-      <c r="E54" s="13">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F54" s="8">
-        <v>16</v>
-      </c>
-      <c r="G54" s="13">
-        <v>5</v>
-      </c>
-      <c r="H54" s="8">
-        <v>512</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" s="8">
-        <v>0.60970000000000002</v>
-      </c>
-      <c r="K54" s="9">
-        <v>2.7083333333333334E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D55" s="11">
-        <v>17</v>
-      </c>
-      <c r="E55" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="F55" s="11">
-        <v>16</v>
-      </c>
-      <c r="G55" s="14">
-        <v>5</v>
-      </c>
-      <c r="H55" s="11">
-        <v>512</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="11">
-        <v>0.63060000000000005</v>
-      </c>
-      <c r="K55" s="12">
-        <v>2.7083333333333334E-3</v>
+      <c r="F64" s="9">
+        <v>16</v>
+      </c>
+      <c r="G64" s="9">
+        <v>5</v>
+      </c>
+      <c r="H64" s="9">
+        <v>512</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="9">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="K64" s="10">
+        <v>2.8240740740740739E-3</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{FCCB08E3-EF56-9B4A-ADD2-F5CBCC86BC87}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="J2:J55">
+  <conditionalFormatting sqref="J2:J64">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -2766,7 +3105,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EC709940-7E35-B344-9D12-3DF344FF0408}</x14:id>
+          <x14:id>{B9A58704-557C-964E-8BA0-7049045BC7BD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2776,7 +3115,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EC709940-7E35-B344-9D12-3DF344FF0408}">
+          <x14:cfRule type="dataBar" id="{B9A58704-557C-964E-8BA0-7049045BC7BD}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2786,7 +3125,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J2:J55</xm:sqref>
+          <xm:sqref>J2:J64</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2798,7 +3137,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA9018E-6791-BF43-BCE1-A9F63B9ADDE8}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -2809,7 +3150,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="42">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
@@ -2836,7 +3177,7 @@
         <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
@@ -2844,10 +3185,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -2882,7 +3223,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -2917,7 +3258,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -2952,7 +3293,7 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -2987,7 +3328,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -3022,7 +3363,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -3057,7 +3398,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -3089,10 +3430,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -3127,7 +3468,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -3172,7 +3513,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E70AD71F-E978-2F40-AA6C-45DC79D06667}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -3182,7 +3525,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="63">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
@@ -3209,7 +3552,7 @@
         <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
@@ -3217,10 +3560,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -3252,10 +3595,10 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -3287,10 +3630,10 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -3322,10 +3665,10 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -3357,10 +3700,10 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -3392,10 +3735,10 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -3427,10 +3770,10 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -3462,10 +3805,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
         <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -3497,10 +3840,10 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -3545,7 +3888,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E946DFCE-2A94-F54F-88B4-FFAE42B1F01F}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -3555,7 +3900,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="63">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
@@ -3582,7 +3927,7 @@
         <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
@@ -3590,10 +3935,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -3625,10 +3970,10 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
         <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -3660,10 +4005,10 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -3695,10 +4040,10 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -3730,10 +4075,10 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -3765,10 +4110,10 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -3800,10 +4145,10 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -3835,10 +4180,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -3870,10 +4215,10 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -3918,7 +4263,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B4D217-4091-004F-AB48-22CD928B2E2F}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -3929,7 +4276,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="63">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
@@ -3956,7 +4303,7 @@
         <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
@@ -3964,10 +4311,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -3999,10 +4346,10 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -4034,10 +4381,10 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -4069,10 +4416,10 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -4104,10 +4451,10 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -4139,10 +4486,10 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -4174,10 +4521,10 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -4209,10 +4556,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
         <v>52</v>
-      </c>
-      <c r="B9" t="s">
-        <v>53</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -4244,10 +4591,10 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -4292,7 +4639,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E2EE17-193D-4642-9DC6-EEDDB2FC332D}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -4302,7 +4651,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="63">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
@@ -4329,7 +4678,7 @@
         <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
@@ -4337,10 +4686,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -4372,10 +4721,10 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -4407,10 +4756,10 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -4442,10 +4791,10 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -4477,10 +4826,10 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
         <v>59</v>
-      </c>
-      <c r="B6" t="s">
-        <v>60</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -4512,10 +4861,10 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -4547,10 +4896,10 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -4582,10 +4931,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -4617,10 +4966,10 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -4665,7 +5014,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B522A84A-D30F-C241-94D3-AEC80CB02548}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -4675,7 +5026,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="63">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
@@ -4702,7 +5053,7 @@
         <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
@@ -4710,13 +5061,13 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2">
         <v>23.37</v>
@@ -4727,7 +5078,7 @@
       <c r="F2">
         <v>16</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2">
         <v>5</v>
       </c>
       <c r="H2">
@@ -4745,13 +5096,13 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
         <v>72</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
       </c>
       <c r="D3">
         <v>23.37</v>
@@ -4762,7 +5113,7 @@
       <c r="F3">
         <v>16</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3">
         <v>5</v>
       </c>
       <c r="H3">
@@ -4780,13 +5131,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4">
         <v>23.37</v>
@@ -4797,7 +5148,7 @@
       <c r="F4">
         <v>16</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4">
         <v>5</v>
       </c>
       <c r="H4">
@@ -4815,10 +5166,10 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -4826,13 +5177,13 @@
       <c r="D5">
         <v>23</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>1E-4</v>
       </c>
       <c r="F5">
         <v>32</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
         <v>5</v>
       </c>
       <c r="H5">
@@ -4850,10 +5201,10 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -4861,13 +5212,13 @@
       <c r="D6">
         <v>23</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="F6">
         <v>32</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6">
         <v>5</v>
       </c>
       <c r="H6">
@@ -4885,10 +5236,10 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -4896,13 +5247,13 @@
       <c r="D7">
         <v>23</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>1E-3</v>
       </c>
       <c r="F7">
         <v>32</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7">
         <v>5</v>
       </c>
       <c r="H7">
@@ -4920,10 +5271,10 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -4931,13 +5282,13 @@
       <c r="D8">
         <v>17</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>1E-4</v>
       </c>
       <c r="F8">
         <v>16</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8">
         <v>5</v>
       </c>
       <c r="H8">
@@ -4955,10 +5306,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -4966,13 +5317,13 @@
       <c r="D9">
         <v>17</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="F9">
         <v>16</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9">
         <v>5</v>
       </c>
       <c r="H9">
@@ -4990,10 +5341,10 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -5001,13 +5352,13 @@
       <c r="D10">
         <v>17</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10">
         <v>1E-3</v>
       </c>
       <c r="F10">
         <v>16</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10">
         <v>5</v>
       </c>
       <c r="H10">
@@ -5032,4 +5383,380 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F045E01B-63AB-3B43-BF84-C6F5AFFA5B46}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="63">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2">
+        <v>23.37</v>
+      </c>
+      <c r="E2">
+        <v>1E-4</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>512</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>0.22109999999999999</v>
+      </c>
+      <c r="K2" s="2">
+        <v>3.5995370370370369E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3">
+        <v>23.37</v>
+      </c>
+      <c r="E3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>512</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>0.24890000000000001</v>
+      </c>
+      <c r="K3" s="2">
+        <v>3.1944444444444446E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4">
+        <v>23.37</v>
+      </c>
+      <c r="E4">
+        <v>1E-3</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>512</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>0.48039999999999999</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2.7199074074074074E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>1E-4</v>
+      </c>
+      <c r="F5">
+        <v>32</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>512</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>0.1991</v>
+      </c>
+      <c r="K5" s="2">
+        <v>3.4375E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F6">
+        <v>32</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>512</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>0.32950000000000002</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2.7314814814814814E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>1E-3</v>
+      </c>
+      <c r="F7">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>512</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>0.49740000000000001</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2.5115740740740741E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>1E-4</v>
+      </c>
+      <c r="F8">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>512</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8">
+        <v>0.21779999999999999</v>
+      </c>
+      <c r="K8" s="2">
+        <v>3.1250000000000002E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>512</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <v>0.40889999999999999</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2.8935185185185184E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>1E-3</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>512</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2.8240740740740739E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{F045E01B-63AB-3B43-BF84-C6F5AFFA5B46}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K10">
+      <sortCondition descending="1" ref="D1:D10"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>